--- a/assets/disciplinas/LOM3047.xlsx
+++ b/assets/disciplinas/LOM3047.xlsx
@@ -134,11 +134,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOQ4073 -  Química Geral II  (Requisito fraco)
+    <t xml:space="preserve">LOQ4095 -  Química Geral Experimental  (Requisito fraco)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOQ4095 -  Química Geral Experimental  (Requisito fraco)
+    <t xml:space="preserve">LOQ4098 -  Fundamentos de Química para Engenharia II (Requisito fraco)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOM3047.xlsx
+++ b/assets/disciplinas/LOM3047.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>1) Introduzir conceitos fundamentais em química analítica clássica e instrumental;2) Apresentar várias técnicas instrumentais de análise amplamente utilizadas na área de materiais;3) Mostrar, por meio de aulas teóricas e práticas, a aplicação destas técnicas à análise de materiais;4) Mostrar, por meio de experimentos de laboratório, a operação de equipamentos para a análise química.</t>
+    <t>5840712 - Ângelo Capri Neto</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840712 - Ângelo Capri Neto</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1. Introdução à Química Analítica;2. Preparação de amostras sólidas e líquidas;3. Métodos de análises qualitativas e quantitativas por via úmida;4. Métodos espectroscópicos de análise;5. Análise de gases em metais;</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Introdução à química analítica; Preparação de amostras sólidas e líquidas; Química analítica qualitativa por via úmida; Química analítica quantitativa por via úmida;Métodos espectroscópicos de análise. Espectroscopia UV/Visível: interação radiação/matéria, absorção molecular, lei de Beer; instrumentação, calibração do equipamento, aplicações e interpretação dos resultados analíticos.Absorção Atômica: instrumentação, calibração do equipamento e controle de interferências; aplicações e interpretação de resultados analíticos.Emissão Atômica: instrumentação, calibração do equipamento e controle de interferências; aplicações e interpretação de resultados analíticos. Análise de gases em metais: instrumentação e calibração do equipamento; aplicações e interpretação de resultados analíticos.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>A avaliação será feita por meio de duas provas (P1 e P2). A critério do professor, a avaliação poderá ser complementada por meio de trabalhos e/ou relatórios, valendo até 30% da nota das provas.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota final (NF) será calculada pela média aritmética das provas. NF=(P1 +P2)/2.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Para a recuperação será realizada uma prova (PR) abrangendo toda a matéria lecionada no semestre, valendo de 0 (zero) a 10 (dez). Média final = (NF + PR)/2.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1. VOGEL, A. L., et al. Análise Química Quantitativa, 6ª Ed., Rio de Janeiro, Livros Técnicos e Científicos Editora S.A., 2003.2. SKOOG, D.A. &amp; Jeary, J.J. Principles of Instrumental Analysis, 6th Ed, Saunders College Publishing, 2007.3. MITRA, S. Sample Preparation Techniques in Analytical  Chemistry, Wiley &amp; Sons, Hoboken, New Jersey, 2003.4. ANDERSON, R. Sample Pretreatment and  separation, Wiley &amp; Sons, New York, 1997</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -495,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,122 +611,114 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3047.xlsx
+++ b/assets/disciplinas/LOM3047.xlsx
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2018</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -82,9 +82,6 @@
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
-  </si>
-  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>Método:</t>
+  </si>
+  <si>
+    <t>5840521 - Rosa Ana Conte</t>
   </si>
   <si>
     <t>Critério:</t>
@@ -616,47 +616,47 @@
         <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">

--- a/assets/disciplinas/LOM3047.xlsx
+++ b/assets/disciplinas/LOM3047.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,24 +70,36 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar a análise química como ferramenta para o estudo da composição e das propriedades de materiais.Desenvolver a competência para formular e compreender problemas relacionados à análise química e buscar de forma autônoma procedimentos adequados para a sua solução. Desenvolver nos alunos a competência técnica para propor experimentos, obter e interpretar resultados analíticos. Incentivar trabalhos em grupo para a solução de problemas, com apresentação de resultados de forma oral e escrita.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840712 - Ângelo Capri Neto</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>5840521 - Rosa Ana Conte</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>1. Introdução à Química Analítica;2. Preparação de amostras sólidas e líquidas;3. Métodos de análises qualitativas e quantitativas por via úmida;4. Métodos espectroscópicos de análise;5. Análise de gases em metais;</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
+    <t>Introdução à química analítica; Preparação de amostras sólidas e líquidas; Química analítica quantitativa por via úmida: Gravimetria e Volumetria; Métodos espectroscópicos de análise: interação radiação/matéria, absorção atômica e molecular. Espectroscopia UV/Visível: lei de Beer; instrumentação, calibração do equipamento, aplicações e interpretação dos resultados analíticos. Absorção Atômica: instrumentação, calibração do equipamento, identificação e controle de interferências; aplicações e interpretação de resultados analíticos. Emissão Atômica: instrumentação, calibração do equipamento e controle de interferências; aplicações e interpretação de resultados analíticos. Análise de gases em metais: instrumentação e calibração do equipamento; aplicações e interpretação de resultados analíticos.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -97,25 +109,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>5840521 - Rosa Ana Conte</t>
+    <t>A avaliação será feita por meio de duas provas (P1 e P2). A critério do professor, a avaliação poderá ser complementada por meio de trabalhos e/ou relatórios, valendo até 30% da nota das provas.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A avaliação será feita por meio de duas provas (P1 e P2). A critério do professor, a avaliação poderá ser complementada por meio de trabalhos e/ou relatórios, valendo até 30% da nota das provas.</t>
+    <t>A nota final (NF) será calculada pela média aritmética das provas. NF=(P1 +P2)/2.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A nota final (NF) será calculada pela média aritmética das provas. NF=(P1 +P2)/2.</t>
+    <t>Para a recuperação será realizada uma prova (PR) abrangendo toda a matéria lecionada no semestre, valendo de 0 (zero) a 10 (dez). Média final = (NF + PR)/2.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Para a recuperação será realizada uma prova (PR) abrangendo toda a matéria lecionada no semestre, valendo de 0 (zero) a 10 (dez). Média final = (NF + PR)/2.</t>
+    <t>1. VOGEL, A. L., et al. Análise Química Quantitativa, 6ª Ed., Rio de Janeiro, Livros Técnicos e Científicos Editora S.A., 2003.2. SKOOG, D.A. &amp; Jeary, J.J. Principles of Instrumental Analysis, 6th Ed, Saunders College Publishing, 2007.3. MITRA, S. Sample Preparation Techniques in Analytical  Chemistry, Wiley &amp; Sons, Hoboken, New Jersey, 2003.4. ANDERSON, R. Sample Pretreatment and  separation, Wiley &amp; Sons, New York, 1997</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -486,13 +498,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -611,62 +623,56 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -681,7 +687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -692,33 +698,55 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1">
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
